--- a/biology/Botanique/Aegagropila_linnaei/Aegagropila_linnaei.xlsx
+++ b/biology/Botanique/Aegagropila_linnaei/Aegagropila_linnaei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marimo, Boule de mousse
 Aegagropila linnaei (communément appelée Marimo ou Boule de mousse) est une espèce d'algues vertes de la famille des Cladophoraceae.
@@ -514,7 +526,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cladophora aegagropila (L.) Rabenh.
 Ce nom a longtemps[précision nécessaire] remplacé celui de Aegagropila linnaei. Néanmoins, en 2002, des études sur l'ADN ont confirmé que cette algue faisait bien partie d'un genre de Cladophora à part. Les auteurs sont donc revenus au nom de Aegagropila linnaei.
@@ -546,11 +560,13 @@
           <t>Appellations et localisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présente au fond de certains lacs de l'hémisphère nord, Aegagropila linnaei ou boule de mousse est une algue verte qui entremêle ses filaments pour former une sphère parfaitement ronde, à l'image d'une boule de pétanque recouverte de mousse reposant au fond de l'eau[4],[5].
-On ne la trouve que dans de rares endroits au monde, comme au Japon, où considérée comme trésor naturel elle est nommée marimo[5], dans le lac Akan, ou en Islande, dans le lac Mývatn, où elle pouvait atteindre 10 à 15 centimètres de diamètre[4]. Dans cette région, elle est aussi surnommée kúluskítur (« boules de merde »), en raison de l'irritation des pêcheurs locaux qui jadis en remontaient en quantité dans leurs filets[4].
-En 2013-2014, du fait de l'activité humaine, les algues ont quasiment disparu du Mývatn, alors qu'elles tapissaient autrefois le sol sur plusieurs couches. Cependant, des boules plus petites ont été repérées dans d'autres lacs d'Islande et en 2016 une grande quantité de jeunes boules (de la taille d'un œuf de poule) a de nouveau été observée au Mývatn[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présente au fond de certains lacs de l'hémisphère nord, Aegagropila linnaei ou boule de mousse est une algue verte qui entremêle ses filaments pour former une sphère parfaitement ronde, à l'image d'une boule de pétanque recouverte de mousse reposant au fond de l'eau,.
+On ne la trouve que dans de rares endroits au monde, comme au Japon, où considérée comme trésor naturel elle est nommée marimo, dans le lac Akan, ou en Islande, dans le lac Mývatn, où elle pouvait atteindre 10 à 15 centimètres de diamètre. Dans cette région, elle est aussi surnommée kúluskítur (« boules de merde »), en raison de l'irritation des pêcheurs locaux qui jadis en remontaient en quantité dans leurs filets.
+En 2013-2014, du fait de l'activité humaine, les algues ont quasiment disparu du Mývatn, alors qu'elles tapissaient autrefois le sol sur plusieurs couches. Cependant, des boules plus petites ont été repérées dans d'autres lacs d'Islande et en 2016 une grande quantité de jeunes boules (de la taille d'un œuf de poule) a de nouveau été observée au Mývatn.
 </t>
         </is>
       </c>
@@ -581,12 +597,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philatélie
-Cette espèce est le sujet principal d'un timbre-poste du Japon, émis en 1952[6][réf. à confirmer], représentant cette algue, appelée localement marimo (毬藻?, lit. « algue-balle ») et une espèce de poissons sur les fonds du lac Akan (parc national d'Akan, île d'Hokkaidō au Japon).
-Astronomie
-L'astéroïde (4494) Marimo doit son nom à l'algue[7].
-Glaciologie
-Les yukimarimo, de petites formations de givre sphériques, découvertes en 1995 en Antarctique par un scientifique japonais, tirent leur nom de l’algue.
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est le sujet principal d'un timbre-poste du Japon, émis en 1952[réf. à confirmer], représentant cette algue, appelée localement marimo (毬藻?, lit. « algue-balle ») et une espèce de poissons sur les fonds du lac Akan (parc national d'Akan, île d'Hokkaidō au Japon).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aegagropila_linnaei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aegagropila_linnaei</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Représentation ou utilisation du nom</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Astronomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'astéroïde (4494) Marimo doit son nom à l'algue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aegagropila_linnaei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aegagropila_linnaei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Représentation ou utilisation du nom</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Glaciologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les yukimarimo, de petites formations de givre sphériques, découvertes en 1995 en Antarctique par un scientifique japonais, tirent leur nom de l’algue.
 </t>
         </is>
       </c>
